--- a/Code/Results/Cases/Case_0_195/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_195/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.985252669802414</v>
+        <v>1.05175724944049</v>
       </c>
       <c r="D2">
-        <v>1.00016801675817</v>
+        <v>1.061732250817521</v>
       </c>
       <c r="E2">
-        <v>1.000661745854556</v>
+        <v>1.058865471869161</v>
       </c>
       <c r="F2">
-        <v>1.006575803006434</v>
+        <v>1.070310756288932</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.007883599384243</v>
+        <v>1.056783439289322</v>
       </c>
       <c r="K2">
-        <v>1.011625011336567</v>
+        <v>1.064455512831642</v>
       </c>
       <c r="L2">
-        <v>1.012111869198724</v>
+        <v>1.06159653861953</v>
       </c>
       <c r="M2">
-        <v>1.017944280369232</v>
+        <v>1.073010933640485</v>
       </c>
       <c r="N2">
-        <v>1.009314909701233</v>
+        <v>1.058284192987868</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9930992057712379</v>
+        <v>1.053346629947036</v>
       </c>
       <c r="D3">
-        <v>1.007432280505515</v>
+        <v>1.063263929734641</v>
       </c>
       <c r="E3">
-        <v>1.007528140182967</v>
+        <v>1.060309036370356</v>
       </c>
       <c r="F3">
-        <v>1.014088740624994</v>
+        <v>1.071903066491195</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.013779777686927</v>
+        <v>1.058019915742132</v>
       </c>
       <c r="K3">
-        <v>1.017970939026158</v>
+        <v>1.065800065445099</v>
       </c>
       <c r="L3">
-        <v>1.018065594773091</v>
+        <v>1.062852626451616</v>
       </c>
       <c r="M3">
-        <v>1.024544472024761</v>
+        <v>1.074417661830047</v>
       </c>
       <c r="N3">
-        <v>1.015219461253409</v>
+        <v>1.059522425379067</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9980250311223249</v>
+        <v>1.054374224834511</v>
       </c>
       <c r="D4">
-        <v>1.011999630768217</v>
+        <v>1.064254536129162</v>
       </c>
       <c r="E4">
-        <v>1.011845396432287</v>
+        <v>1.061242541667407</v>
       </c>
       <c r="F4">
-        <v>1.018813585191225</v>
+        <v>1.072933029893937</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.017479392083412</v>
+        <v>1.058818792020996</v>
       </c>
       <c r="K4">
-        <v>1.02195535635903</v>
+        <v>1.06666908702309</v>
       </c>
       <c r="L4">
-        <v>1.021802929601575</v>
+        <v>1.063664303075817</v>
       </c>
       <c r="M4">
-        <v>1.028690128053717</v>
+        <v>1.075327047972722</v>
       </c>
       <c r="N4">
-        <v>1.018924329526688</v>
+        <v>1.060322436153879</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000061779479266</v>
+        <v>1.054806032897939</v>
       </c>
       <c r="D5">
-        <v>1.013889759684971</v>
+        <v>1.064670876511561</v>
       </c>
       <c r="E5">
-        <v>1.013632020885575</v>
+        <v>1.061634855790218</v>
       </c>
       <c r="F5">
-        <v>1.020769166528019</v>
+        <v>1.073365946019979</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.019008606525778</v>
+        <v>1.059154356991066</v>
       </c>
       <c r="K5">
-        <v>1.02360291795652</v>
+        <v>1.067034192431199</v>
       </c>
       <c r="L5">
-        <v>1.023348111032133</v>
+        <v>1.064005275694893</v>
       </c>
       <c r="M5">
-        <v>1.030404742617639</v>
+        <v>1.07570915465318</v>
       </c>
       <c r="N5">
-        <v>1.020455715628966</v>
+        <v>1.060658477664696</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000401820487829</v>
+        <v>1.054878524308069</v>
       </c>
       <c r="D6">
-        <v>1.014205414027044</v>
+        <v>1.064740775623079</v>
       </c>
       <c r="E6">
-        <v>1.013930388816336</v>
+        <v>1.061700719541605</v>
       </c>
       <c r="F6">
-        <v>1.021095767786347</v>
+        <v>1.07343863004159</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.019263880854638</v>
+        <v>1.059210683434687</v>
       </c>
       <c r="K6">
-        <v>1.023877984991542</v>
+        <v>1.067095481867691</v>
       </c>
       <c r="L6">
-        <v>1.023606072530058</v>
+        <v>1.064062511651901</v>
       </c>
       <c r="M6">
-        <v>1.030691026746842</v>
+        <v>1.075773300561374</v>
       </c>
       <c r="N6">
-        <v>1.020711352476653</v>
+        <v>1.060714884098328</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9980523773817039</v>
+        <v>1.054379995422263</v>
       </c>
       <c r="D7">
-        <v>1.01202500221598</v>
+        <v>1.064260099715057</v>
       </c>
       <c r="E7">
-        <v>1.011869378581038</v>
+        <v>1.061247784296301</v>
       </c>
       <c r="F7">
-        <v>1.018839834122097</v>
+        <v>1.072938814847315</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.017499926111377</v>
+        <v>1.058823276959312</v>
       </c>
       <c r="K7">
-        <v>1.021977477054899</v>
+        <v>1.066673966479886</v>
       </c>
       <c r="L7">
-        <v>1.021823676559432</v>
+        <v>1.06366886016781</v>
       </c>
       <c r="M7">
-        <v>1.028713147520524</v>
+        <v>1.075332154475308</v>
       </c>
       <c r="N7">
-        <v>1.018944892715328</v>
+        <v>1.060326927461322</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9879371682036509</v>
+        <v>1.052294567142695</v>
       </c>
       <c r="D8">
-        <v>1.002651757843552</v>
+        <v>1.062249995217485</v>
       </c>
       <c r="E8">
-        <v>1.003009423037344</v>
+        <v>1.059353454885098</v>
       </c>
       <c r="F8">
-        <v>1.009144328869641</v>
+        <v>1.070848965684458</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.009901169628089</v>
+        <v>1.057201565920323</v>
       </c>
       <c r="K8">
-        <v>1.013795928798913</v>
+        <v>1.064910120493696</v>
       </c>
       <c r="L8">
-        <v>1.014148783506234</v>
+        <v>1.062021270095993</v>
       </c>
       <c r="M8">
-        <v>1.02020184286811</v>
+        <v>1.073486526459868</v>
       </c>
       <c r="N8">
-        <v>1.011335345126244</v>
+        <v>1.058702913406644</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9688438989111097</v>
+        <v>1.048612961053823</v>
       </c>
       <c r="D9">
-        <v>0.9850210964880904</v>
+        <v>1.058703836005056</v>
       </c>
       <c r="E9">
-        <v>0.9863458979223828</v>
+        <v>1.056010679151948</v>
       </c>
       <c r="F9">
-        <v>0.990916688445771</v>
+        <v>1.067163228654944</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9955469522032656</v>
+        <v>1.054334381240271</v>
       </c>
       <c r="K9">
-        <v>0.9983619626616369</v>
+        <v>1.061794087246478</v>
       </c>
       <c r="L9">
-        <v>0.9996644573504916</v>
+        <v>1.059109332154391</v>
       </c>
       <c r="M9">
-        <v>1.00415887544166</v>
+        <v>1.070227390372365</v>
       </c>
       <c r="N9">
-        <v>0.9969607430662257</v>
+        <v>1.055831656995476</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9550876680692223</v>
+        <v>1.046153446737526</v>
       </c>
       <c r="D10">
-        <v>0.9723686287532731</v>
+        <v>1.056336514650686</v>
       </c>
       <c r="E10">
-        <v>0.9743904590633284</v>
+        <v>1.053778560551301</v>
       </c>
       <c r="F10">
-        <v>0.9778419514743995</v>
+        <v>1.064703473515626</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9852039242497075</v>
+        <v>1.052416128232753</v>
       </c>
       <c r="K10">
-        <v>0.9872553648217924</v>
+        <v>1.059710992844305</v>
       </c>
       <c r="L10">
-        <v>0.989238026219466</v>
+        <v>1.057161818270378</v>
       </c>
       <c r="M10">
-        <v>0.9926231427120079</v>
+        <v>1.06804955802481</v>
       </c>
       <c r="N10">
-        <v>0.9866030268266117</v>
+        <v>1.053910679848661</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9488409027416943</v>
+        <v>1.045087120018198</v>
       </c>
       <c r="D11">
-        <v>0.9666369650020108</v>
+        <v>1.055310573094482</v>
       </c>
       <c r="E11">
-        <v>0.9689757438266702</v>
+        <v>1.052811079498882</v>
       </c>
       <c r="F11">
-        <v>0.9719204287806305</v>
+        <v>1.063637650253417</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9805084873966761</v>
+        <v>1.05158380340877</v>
       </c>
       <c r="K11">
-        <v>0.9822167324215706</v>
+        <v>1.058807535004637</v>
       </c>
       <c r="L11">
-        <v>0.9845074475056059</v>
+        <v>1.056316960302156</v>
       </c>
       <c r="M11">
-        <v>0.9873920503549165</v>
+        <v>1.067105232086856</v>
       </c>
       <c r="N11">
-        <v>0.9819009219146748</v>
+        <v>1.053077173027958</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9464723089618292</v>
+        <v>1.04469082716552</v>
       </c>
       <c r="D12">
-        <v>0.9644659636324132</v>
+        <v>1.05492935224563</v>
       </c>
       <c r="E12">
-        <v>0.9669250201002876</v>
+        <v>1.052451561657781</v>
       </c>
       <c r="F12">
-        <v>0.9696777263722814</v>
+        <v>1.06324163671049</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9787284821923425</v>
+        <v>1.051274376567358</v>
       </c>
       <c r="K12">
-        <v>0.9803071428831249</v>
+        <v>1.058471722419087</v>
       </c>
       <c r="L12">
-        <v>0.9827145548534298</v>
+        <v>1.056002898748742</v>
       </c>
       <c r="M12">
-        <v>0.9854098599289338</v>
+        <v>1.066754262157248</v>
       </c>
       <c r="N12">
-        <v>0.9801183888987817</v>
+        <v>1.05276730676494</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9469826469977114</v>
+        <v>1.04477584306878</v>
       </c>
       <c r="D13">
-        <v>0.9649336220334943</v>
+        <v>1.05501113191208</v>
       </c>
       <c r="E13">
-        <v>0.9673667583060503</v>
+        <v>1.052528686479751</v>
       </c>
       <c r="F13">
-        <v>0.9701608204518959</v>
+        <v>1.063326588507861</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.979111983235408</v>
+        <v>1.051340761760533</v>
       </c>
       <c r="K13">
-        <v>0.9807185393712633</v>
+        <v>1.058543765812632</v>
       </c>
       <c r="L13">
-        <v>0.9831008124314399</v>
+        <v>1.0560702771675</v>
       </c>
       <c r="M13">
-        <v>0.985836881928292</v>
+        <v>1.06682955582101</v>
       </c>
       <c r="N13">
-        <v>0.9805024345573166</v>
+        <v>1.052833786232704</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9486461281028559</v>
+        <v>1.04505436670378</v>
       </c>
       <c r="D14">
-        <v>0.9664583913870395</v>
+        <v>1.055279064177524</v>
       </c>
       <c r="E14">
-        <v>0.9688070586577886</v>
+        <v>1.052781364796674</v>
       </c>
       <c r="F14">
-        <v>0.9717359531755587</v>
+        <v>1.063604918138077</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9803621051885869</v>
+        <v>1.051558231526437</v>
       </c>
       <c r="K14">
-        <v>0.9820596830744565</v>
+        <v>1.058779781332343</v>
       </c>
       <c r="L14">
-        <v>0.9843599965053955</v>
+        <v>1.056291004891294</v>
       </c>
       <c r="M14">
-        <v>0.9872290232165999</v>
+        <v>1.067076225038379</v>
       </c>
       <c r="N14">
-        <v>0.98175433182706</v>
+        <v>1.05305156483062</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9496645066715343</v>
+        <v>1.045225945958517</v>
       </c>
       <c r="D15">
-        <v>0.9673921568000852</v>
+        <v>1.055444127207644</v>
       </c>
       <c r="E15">
-        <v>0.9696891266442532</v>
+        <v>1.052937027818698</v>
       </c>
       <c r="F15">
-        <v>0.9727005888415474</v>
+        <v>1.063776390121101</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9811274801096641</v>
+        <v>1.051692186569135</v>
       </c>
       <c r="K15">
-        <v>0.982880853333535</v>
+        <v>1.05892516781143</v>
       </c>
       <c r="L15">
-        <v>0.9851309775311339</v>
+        <v>1.056426970008623</v>
       </c>
       <c r="M15">
-        <v>0.988081463617053</v>
+        <v>1.067228178637249</v>
       </c>
       <c r="N15">
-        <v>0.9825207936683146</v>
+        <v>1.053185710104843</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9554957477445527</v>
+        <v>1.046224186212693</v>
       </c>
       <c r="D16">
-        <v>0.972743361222192</v>
+        <v>1.056404583803001</v>
       </c>
       <c r="E16">
-        <v>0.9747444980769647</v>
+        <v>1.053842748177146</v>
       </c>
       <c r="F16">
-        <v>0.9782291261994686</v>
+        <v>1.064774192467354</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9855107026022747</v>
+        <v>1.052471330240454</v>
       </c>
       <c r="K16">
-        <v>0.9875846372535646</v>
+        <v>1.059770920823153</v>
       </c>
       <c r="L16">
-        <v>0.9895471588969358</v>
+        <v>1.057217854954322</v>
       </c>
       <c r="M16">
-        <v>0.9929650387017662</v>
+        <v>1.068112201508568</v>
       </c>
       <c r="N16">
-        <v>0.9869102408396273</v>
+        <v>1.053965960249545</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9590727431033814</v>
+        <v>1.046849989808694</v>
       </c>
       <c r="D17">
-        <v>0.9760296375780106</v>
+        <v>1.057006812114233</v>
       </c>
       <c r="E17">
-        <v>0.9778494390060123</v>
+        <v>1.054410620095457</v>
       </c>
       <c r="F17">
-        <v>0.9816246781112605</v>
+        <v>1.06539988478618</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9881999204159045</v>
+        <v>1.052959603656946</v>
       </c>
       <c r="K17">
-        <v>0.990471426010492</v>
+        <v>1.060301041604038</v>
       </c>
       <c r="L17">
-        <v>0.992257323916136</v>
+        <v>1.057713530093708</v>
       </c>
       <c r="M17">
-        <v>0.9959627513322217</v>
+        <v>1.068666369025146</v>
       </c>
       <c r="N17">
-        <v>0.9896032776510105</v>
+        <v>1.054454927070293</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9611314898244626</v>
+        <v>1.047214881783904</v>
       </c>
       <c r="D18">
-        <v>0.9779223476424005</v>
+        <v>1.057357997803006</v>
       </c>
       <c r="E18">
-        <v>0.9796378183739095</v>
+        <v>1.054741758210292</v>
       </c>
       <c r="F18">
-        <v>0.9835804593974971</v>
+        <v>1.065764770425395</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9897478227289382</v>
+        <v>1.053244240942755</v>
       </c>
       <c r="K18">
-        <v>0.9921333720887311</v>
+        <v>1.06061011136363</v>
       </c>
       <c r="L18">
-        <v>0.993817536654258</v>
+        <v>1.05800249789374</v>
       </c>
       <c r="M18">
-        <v>0.9976887651506633</v>
+        <v>1.068989479720653</v>
       </c>
       <c r="N18">
-        <v>0.9911533781628752</v>
+        <v>1.054739968573697</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9618289094745798</v>
+        <v>1.047339278999492</v>
       </c>
       <c r="D19">
-        <v>0.9785637338025559</v>
+        <v>1.057477729085189</v>
       </c>
       <c r="E19">
-        <v>0.9802438668648213</v>
+        <v>1.054854652398585</v>
       </c>
       <c r="F19">
-        <v>0.9842432415371197</v>
+        <v>1.065889175384912</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9902722045748991</v>
+        <v>1.053341267257324</v>
       </c>
       <c r="K19">
-        <v>0.9926964431878114</v>
+        <v>1.060715472540578</v>
       </c>
       <c r="L19">
-        <v>0.9943461311549121</v>
+        <v>1.058101003040974</v>
       </c>
       <c r="M19">
-        <v>0.998273577680572</v>
+        <v>1.069099631025886</v>
       </c>
       <c r="N19">
-        <v>0.9916785046912048</v>
+        <v>1.054837132676762</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9586918573053549</v>
+        <v>1.046782860388658</v>
       </c>
       <c r="D20">
-        <v>0.9756795730040605</v>
+        <v>1.056942207458152</v>
       </c>
       <c r="E20">
-        <v>0.9775186792850127</v>
+        <v>1.054349702385181</v>
       </c>
       <c r="F20">
-        <v>0.9812629591809718</v>
+        <v>1.065332761239746</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.987913553672352</v>
+        <v>1.052907233593887</v>
       </c>
       <c r="K20">
-        <v>0.990163986965618</v>
+        <v>1.060244179275871</v>
       </c>
       <c r="L20">
-        <v>0.9919687000618704</v>
+        <v>1.05766036452848</v>
       </c>
       <c r="M20">
-        <v>0.9956434773841193</v>
+        <v>1.068606925172389</v>
       </c>
       <c r="N20">
-        <v>0.9893165042338353</v>
+        <v>1.054402482635738</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9481576477015906</v>
+        <v>1.044972354359532</v>
       </c>
       <c r="D21">
-        <v>0.9660105793209273</v>
+        <v>1.055200168752938</v>
       </c>
       <c r="E21">
-        <v>0.9683840478195753</v>
+        <v>1.052706961600791</v>
       </c>
       <c r="F21">
-        <v>0.9712733439952347</v>
+        <v>1.063522960367338</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.97999499595398</v>
+        <v>1.051494199459454</v>
       </c>
       <c r="K21">
-        <v>0.9816658302585026</v>
+        <v>1.058710287007088</v>
       </c>
       <c r="L21">
-        <v>0.983990213945292</v>
+        <v>1.056226012866135</v>
       </c>
       <c r="M21">
-        <v>0.9868201846028034</v>
+        <v>1.06700359283498</v>
       </c>
       <c r="N21">
-        <v>0.9813867012552316</v>
+        <v>1.052987441830757</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9412522709367744</v>
+        <v>1.043832787831138</v>
       </c>
       <c r="D22">
-        <v>0.9596858417700643</v>
+        <v>1.054104062682096</v>
       </c>
       <c r="E22">
-        <v>0.9624102012728959</v>
+        <v>1.051673219985604</v>
       </c>
       <c r="F22">
-        <v>0.9647401216694972</v>
+        <v>1.062384371735762</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9748064895175049</v>
+        <v>1.050604235588034</v>
       </c>
       <c r="K22">
-        <v>0.9761005883766832</v>
+        <v>1.057744544170503</v>
       </c>
       <c r="L22">
-        <v>0.9787650005376897</v>
+        <v>1.055322765362694</v>
       </c>
       <c r="M22">
-        <v>0.9810440096201654</v>
+        <v>1.065994322560932</v>
       </c>
       <c r="N22">
-        <v>0.9761908265444869</v>
+        <v>1.052096214108559</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.944941427540279</v>
+        <v>1.044437013574077</v>
       </c>
       <c r="D23">
-        <v>0.9630634608558362</v>
+        <v>1.054685209695664</v>
       </c>
       <c r="E23">
-        <v>0.9656002888459496</v>
+        <v>1.05222131265032</v>
       </c>
       <c r="F23">
-        <v>0.9682289630738452</v>
+        <v>1.062988028074642</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.977578146626916</v>
+        <v>1.051076170171822</v>
       </c>
       <c r="K23">
-        <v>0.9790732093068564</v>
+        <v>1.058256630939724</v>
       </c>
       <c r="L23">
-        <v>0.981556016774743</v>
+        <v>1.055801730495723</v>
       </c>
       <c r="M23">
-        <v>0.9841291097797571</v>
+        <v>1.066529471595368</v>
       </c>
       <c r="N23">
-        <v>0.9789664197249068</v>
+        <v>1.052568818893588</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9588640483173311</v>
+        <v>1.046813193681789</v>
       </c>
       <c r="D24">
-        <v>0.975837826358061</v>
+        <v>1.056971399780816</v>
       </c>
       <c r="E24">
-        <v>0.9776682051797803</v>
+        <v>1.054377228760683</v>
       </c>
       <c r="F24">
-        <v>0.9814264806900475</v>
+        <v>1.065363091697928</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9880430141164126</v>
+        <v>1.052930897879111</v>
       </c>
       <c r="K24">
-        <v>0.9903029727555459</v>
+        <v>1.06026987334938</v>
       </c>
       <c r="L24">
-        <v>0.9920991801134278</v>
+        <v>1.057684388226073</v>
       </c>
       <c r="M24">
-        <v>0.995787812802848</v>
+        <v>1.068633785679766</v>
       </c>
       <c r="N24">
-        <v>0.9894461485265758</v>
+        <v>1.054426180526962</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9739469606458577</v>
+        <v>1.049565606285847</v>
       </c>
       <c r="D25">
-        <v>0.9897253463085208</v>
+        <v>1.059621135994137</v>
       </c>
       <c r="E25">
-        <v>0.9907917304032974</v>
+        <v>1.056875470313181</v>
       </c>
       <c r="F25">
-        <v>0.9957791715495993</v>
+        <v>1.068116502766107</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9993840893949224</v>
+        <v>1.055076786112191</v>
       </c>
       <c r="K25">
-        <v>1.002485284937401</v>
+        <v>1.062600637123987</v>
       </c>
       <c r="L25">
-        <v>1.00353469483661</v>
+        <v>1.059863205819263</v>
       </c>
       <c r="M25">
-        <v>1.008443365731414</v>
+        <v>1.071070817747025</v>
       </c>
       <c r="N25">
-        <v>1.00080332943282</v>
+        <v>1.056575116167469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_195/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_195/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.05175724944049</v>
+        <v>0.9852526698024154</v>
       </c>
       <c r="D2">
-        <v>1.061732250817521</v>
+        <v>1.000168016758172</v>
       </c>
       <c r="E2">
-        <v>1.058865471869161</v>
+        <v>1.000661745854557</v>
       </c>
       <c r="F2">
-        <v>1.070310756288932</v>
+        <v>1.006575803006436</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.056783439289322</v>
+        <v>1.007883599384245</v>
       </c>
       <c r="K2">
-        <v>1.064455512831642</v>
+        <v>1.011625011336569</v>
       </c>
       <c r="L2">
-        <v>1.06159653861953</v>
+        <v>1.012111869198725</v>
       </c>
       <c r="M2">
-        <v>1.073010933640485</v>
+        <v>1.017944280369233</v>
       </c>
       <c r="N2">
-        <v>1.058284192987868</v>
+        <v>1.009314909701235</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.053346629947036</v>
+        <v>0.9930992057712383</v>
       </c>
       <c r="D3">
-        <v>1.063263929734641</v>
+        <v>1.007432280505516</v>
       </c>
       <c r="E3">
-        <v>1.060309036370356</v>
+        <v>1.007528140182967</v>
       </c>
       <c r="F3">
-        <v>1.071903066491195</v>
+        <v>1.014088740624995</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.058019915742132</v>
+        <v>1.013779777686928</v>
       </c>
       <c r="K3">
-        <v>1.065800065445099</v>
+        <v>1.017970939026158</v>
       </c>
       <c r="L3">
-        <v>1.062852626451616</v>
+        <v>1.018065594773091</v>
       </c>
       <c r="M3">
-        <v>1.074417661830047</v>
+        <v>1.024544472024761</v>
       </c>
       <c r="N3">
-        <v>1.059522425379067</v>
+        <v>1.015219461253409</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.054374224834511</v>
+        <v>0.9980250311223249</v>
       </c>
       <c r="D4">
-        <v>1.064254536129162</v>
+        <v>1.011999630768217</v>
       </c>
       <c r="E4">
-        <v>1.061242541667407</v>
+        <v>1.011845396432287</v>
       </c>
       <c r="F4">
-        <v>1.072933029893937</v>
+        <v>1.018813585191225</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.058818792020996</v>
+        <v>1.017479392083412</v>
       </c>
       <c r="K4">
-        <v>1.06666908702309</v>
+        <v>1.02195535635903</v>
       </c>
       <c r="L4">
-        <v>1.063664303075817</v>
+        <v>1.021802929601575</v>
       </c>
       <c r="M4">
-        <v>1.075327047972722</v>
+        <v>1.028690128053717</v>
       </c>
       <c r="N4">
-        <v>1.060322436153879</v>
+        <v>1.018924329526688</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.054806032897939</v>
+        <v>1.000061779479266</v>
       </c>
       <c r="D5">
-        <v>1.064670876511561</v>
+        <v>1.013889759684971</v>
       </c>
       <c r="E5">
-        <v>1.061634855790218</v>
+        <v>1.013632020885574</v>
       </c>
       <c r="F5">
-        <v>1.073365946019979</v>
+        <v>1.020769166528018</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.059154356991066</v>
+        <v>1.019008606525778</v>
       </c>
       <c r="K5">
-        <v>1.067034192431199</v>
+        <v>1.02360291795652</v>
       </c>
       <c r="L5">
-        <v>1.064005275694893</v>
+        <v>1.023348111032132</v>
       </c>
       <c r="M5">
-        <v>1.07570915465318</v>
+        <v>1.030404742617639</v>
       </c>
       <c r="N5">
-        <v>1.060658477664696</v>
+        <v>1.020455715628965</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.054878524308069</v>
+        <v>1.00040182048783</v>
       </c>
       <c r="D6">
-        <v>1.064740775623079</v>
+        <v>1.014205414027045</v>
       </c>
       <c r="E6">
-        <v>1.061700719541605</v>
+        <v>1.013930388816337</v>
       </c>
       <c r="F6">
-        <v>1.07343863004159</v>
+        <v>1.021095767786348</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.059210683434687</v>
+        <v>1.019263880854639</v>
       </c>
       <c r="K6">
-        <v>1.067095481867691</v>
+        <v>1.023877984991543</v>
       </c>
       <c r="L6">
-        <v>1.064062511651901</v>
+        <v>1.023606072530059</v>
       </c>
       <c r="M6">
-        <v>1.075773300561374</v>
+        <v>1.030691026746843</v>
       </c>
       <c r="N6">
-        <v>1.060714884098328</v>
+        <v>1.020711352476654</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.054379995422263</v>
+        <v>0.9980523773817043</v>
       </c>
       <c r="D7">
-        <v>1.064260099715057</v>
+        <v>1.01202500221598</v>
       </c>
       <c r="E7">
-        <v>1.061247784296301</v>
+        <v>1.011869378581038</v>
       </c>
       <c r="F7">
-        <v>1.072938814847315</v>
+        <v>1.018839834122097</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.058823276959312</v>
+        <v>1.017499926111377</v>
       </c>
       <c r="K7">
-        <v>1.066673966479886</v>
+        <v>1.021977477054899</v>
       </c>
       <c r="L7">
-        <v>1.06366886016781</v>
+        <v>1.021823676559432</v>
       </c>
       <c r="M7">
-        <v>1.075332154475308</v>
+        <v>1.028713147520524</v>
       </c>
       <c r="N7">
-        <v>1.060326927461322</v>
+        <v>1.018944892715328</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.052294567142695</v>
+        <v>0.9879371682036494</v>
       </c>
       <c r="D8">
-        <v>1.062249995217485</v>
+        <v>1.002651757843551</v>
       </c>
       <c r="E8">
-        <v>1.059353454885098</v>
+        <v>1.003009423037343</v>
       </c>
       <c r="F8">
-        <v>1.070848965684458</v>
+        <v>1.00914432886964</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.057201565920323</v>
+        <v>1.009901169628088</v>
       </c>
       <c r="K8">
-        <v>1.064910120493696</v>
+        <v>1.013795928798912</v>
       </c>
       <c r="L8">
-        <v>1.062021270095993</v>
+        <v>1.014148783506233</v>
       </c>
       <c r="M8">
-        <v>1.073486526459868</v>
+        <v>1.020201842868109</v>
       </c>
       <c r="N8">
-        <v>1.058702913406644</v>
+        <v>1.011335345126243</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.048612961053823</v>
+        <v>0.9688438989111093</v>
       </c>
       <c r="D9">
-        <v>1.058703836005056</v>
+        <v>0.9850210964880898</v>
       </c>
       <c r="E9">
-        <v>1.056010679151948</v>
+        <v>0.9863458979223826</v>
       </c>
       <c r="F9">
-        <v>1.067163228654944</v>
+        <v>0.9909166884457705</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.054334381240271</v>
+        <v>0.9955469522032652</v>
       </c>
       <c r="K9">
-        <v>1.061794087246478</v>
+        <v>0.9983619626616365</v>
       </c>
       <c r="L9">
-        <v>1.059109332154391</v>
+        <v>0.9996644573504913</v>
       </c>
       <c r="M9">
-        <v>1.070227390372365</v>
+        <v>1.00415887544166</v>
       </c>
       <c r="N9">
-        <v>1.055831656995476</v>
+        <v>0.9969607430662252</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.046153446737526</v>
+        <v>0.9550876680692222</v>
       </c>
       <c r="D10">
-        <v>1.056336514650686</v>
+        <v>0.972368628753273</v>
       </c>
       <c r="E10">
-        <v>1.053778560551301</v>
+        <v>0.9743904590633281</v>
       </c>
       <c r="F10">
-        <v>1.064703473515626</v>
+        <v>0.9778419514743992</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.052416128232753</v>
+        <v>0.9852039242497076</v>
       </c>
       <c r="K10">
-        <v>1.059710992844305</v>
+        <v>0.9872553648217922</v>
       </c>
       <c r="L10">
-        <v>1.057161818270378</v>
+        <v>0.9892380262194657</v>
       </c>
       <c r="M10">
-        <v>1.06804955802481</v>
+        <v>0.9926231427120075</v>
       </c>
       <c r="N10">
-        <v>1.053910679848661</v>
+        <v>0.9866030268266116</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.045087120018198</v>
+        <v>0.9488409027416933</v>
       </c>
       <c r="D11">
-        <v>1.055310573094482</v>
+        <v>0.9666369650020098</v>
       </c>
       <c r="E11">
-        <v>1.052811079498882</v>
+        <v>0.9689757438266692</v>
       </c>
       <c r="F11">
-        <v>1.063637650253417</v>
+        <v>0.9719204287806295</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.05158380340877</v>
+        <v>0.9805084873966752</v>
       </c>
       <c r="K11">
-        <v>1.058807535004637</v>
+        <v>0.9822167324215699</v>
       </c>
       <c r="L11">
-        <v>1.056316960302156</v>
+        <v>0.9845074475056049</v>
       </c>
       <c r="M11">
-        <v>1.067105232086856</v>
+        <v>0.9873920503549158</v>
       </c>
       <c r="N11">
-        <v>1.053077173027958</v>
+        <v>0.9819009219146738</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.04469082716552</v>
+        <v>0.946472308961831</v>
       </c>
       <c r="D12">
-        <v>1.05492935224563</v>
+        <v>0.9644659636324153</v>
       </c>
       <c r="E12">
-        <v>1.052451561657781</v>
+        <v>0.966925020100289</v>
       </c>
       <c r="F12">
-        <v>1.06324163671049</v>
+        <v>0.9696777263722833</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.051274376567358</v>
+        <v>0.9787284821923443</v>
       </c>
       <c r="K12">
-        <v>1.058471722419087</v>
+        <v>0.9803071428831269</v>
       </c>
       <c r="L12">
-        <v>1.056002898748742</v>
+        <v>0.9827145548534314</v>
       </c>
       <c r="M12">
-        <v>1.066754262157248</v>
+        <v>0.9854098599289357</v>
       </c>
       <c r="N12">
-        <v>1.05276730676494</v>
+        <v>0.9801183888987836</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.04477584306878</v>
+        <v>0.9469826469977091</v>
       </c>
       <c r="D13">
-        <v>1.05501113191208</v>
+        <v>0.9649336220334919</v>
       </c>
       <c r="E13">
-        <v>1.052528686479751</v>
+        <v>0.9673667583060483</v>
       </c>
       <c r="F13">
-        <v>1.063326588507861</v>
+        <v>0.9701608204518933</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.051340761760533</v>
+        <v>0.9791119832354058</v>
       </c>
       <c r="K13">
-        <v>1.058543765812632</v>
+        <v>0.980718539371261</v>
       </c>
       <c r="L13">
-        <v>1.0560702771675</v>
+        <v>0.983100812431438</v>
       </c>
       <c r="M13">
-        <v>1.06682955582101</v>
+        <v>0.9858368819282894</v>
       </c>
       <c r="N13">
-        <v>1.052833786232704</v>
+        <v>0.9805024345573145</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.04505436670378</v>
+        <v>0.9486461281028562</v>
       </c>
       <c r="D14">
-        <v>1.055279064177524</v>
+        <v>0.9664583913870395</v>
       </c>
       <c r="E14">
-        <v>1.052781364796674</v>
+        <v>0.9688070586577887</v>
       </c>
       <c r="F14">
-        <v>1.063604918138077</v>
+        <v>0.9717359531755585</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.051558231526437</v>
+        <v>0.9803621051885871</v>
       </c>
       <c r="K14">
-        <v>1.058779781332343</v>
+        <v>0.9820596830744565</v>
       </c>
       <c r="L14">
-        <v>1.056291004891294</v>
+        <v>0.9843599965053954</v>
       </c>
       <c r="M14">
-        <v>1.067076225038379</v>
+        <v>0.9872290232165998</v>
       </c>
       <c r="N14">
-        <v>1.05305156483062</v>
+        <v>0.9817543318270602</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.045225945958517</v>
+        <v>0.9496645066715343</v>
       </c>
       <c r="D15">
-        <v>1.055444127207644</v>
+        <v>0.9673921568000851</v>
       </c>
       <c r="E15">
-        <v>1.052937027818698</v>
+        <v>0.9696891266442528</v>
       </c>
       <c r="F15">
-        <v>1.063776390121101</v>
+        <v>0.9727005888415471</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.051692186569135</v>
+        <v>0.9811274801096639</v>
       </c>
       <c r="K15">
-        <v>1.05892516781143</v>
+        <v>0.9828808533335348</v>
       </c>
       <c r="L15">
-        <v>1.056426970008623</v>
+        <v>0.9851309775311334</v>
       </c>
       <c r="M15">
-        <v>1.067228178637249</v>
+        <v>0.9880814636170526</v>
       </c>
       <c r="N15">
-        <v>1.053185710104843</v>
+        <v>0.9825207936683145</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.046224186212693</v>
+        <v>0.9554957477445528</v>
       </c>
       <c r="D16">
-        <v>1.056404583803001</v>
+        <v>0.9727433612221922</v>
       </c>
       <c r="E16">
-        <v>1.053842748177146</v>
+        <v>0.9747444980769645</v>
       </c>
       <c r="F16">
-        <v>1.064774192467354</v>
+        <v>0.9782291261994682</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.052471330240454</v>
+        <v>0.9855107026022748</v>
       </c>
       <c r="K16">
-        <v>1.059770920823153</v>
+        <v>0.9875846372535647</v>
       </c>
       <c r="L16">
-        <v>1.057217854954322</v>
+        <v>0.9895471588969358</v>
       </c>
       <c r="M16">
-        <v>1.068112201508568</v>
+        <v>0.9929650387017659</v>
       </c>
       <c r="N16">
-        <v>1.053965960249545</v>
+        <v>0.9869102408396275</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.046849989808694</v>
+        <v>0.9590727431033829</v>
       </c>
       <c r="D17">
-        <v>1.057006812114233</v>
+        <v>0.9760296375780121</v>
       </c>
       <c r="E17">
-        <v>1.054410620095457</v>
+        <v>0.9778494390060135</v>
       </c>
       <c r="F17">
-        <v>1.06539988478618</v>
+        <v>0.9816246781112621</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.052959603656946</v>
+        <v>0.9881999204159059</v>
       </c>
       <c r="K17">
-        <v>1.060301041604038</v>
+        <v>0.9904714260104934</v>
       </c>
       <c r="L17">
-        <v>1.057713530093708</v>
+        <v>0.992257323916137</v>
       </c>
       <c r="M17">
-        <v>1.068666369025146</v>
+        <v>0.995962751332223</v>
       </c>
       <c r="N17">
-        <v>1.054454927070293</v>
+        <v>0.9896032776510115</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.047214881783904</v>
+        <v>0.9611314898244616</v>
       </c>
       <c r="D18">
-        <v>1.057357997803006</v>
+        <v>0.9779223476423996</v>
       </c>
       <c r="E18">
-        <v>1.054741758210292</v>
+        <v>0.9796378183739086</v>
       </c>
       <c r="F18">
-        <v>1.065764770425395</v>
+        <v>0.9835804593974964</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.053244240942755</v>
+        <v>0.9897478227289375</v>
       </c>
       <c r="K18">
-        <v>1.06061011136363</v>
+        <v>0.9921333720887303</v>
       </c>
       <c r="L18">
-        <v>1.05800249789374</v>
+        <v>0.9938175366542571</v>
       </c>
       <c r="M18">
-        <v>1.068989479720653</v>
+        <v>0.9976887651506625</v>
       </c>
       <c r="N18">
-        <v>1.054739968573697</v>
+        <v>0.9911533781628744</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.047339278999492</v>
+        <v>0.9618289094745778</v>
       </c>
       <c r="D19">
-        <v>1.057477729085189</v>
+        <v>0.9785637338025536</v>
       </c>
       <c r="E19">
-        <v>1.054854652398585</v>
+        <v>0.9802438668648191</v>
       </c>
       <c r="F19">
-        <v>1.065889175384912</v>
+        <v>0.9842432415371176</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.053341267257324</v>
+        <v>0.9902722045748971</v>
       </c>
       <c r="K19">
-        <v>1.060715472540578</v>
+        <v>0.9926964431878091</v>
       </c>
       <c r="L19">
-        <v>1.058101003040974</v>
+        <v>0.9943461311549101</v>
       </c>
       <c r="M19">
-        <v>1.069099631025886</v>
+        <v>0.9982735776805698</v>
       </c>
       <c r="N19">
-        <v>1.054837132676762</v>
+        <v>0.9916785046912027</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.046782860388658</v>
+        <v>0.9586918573053571</v>
       </c>
       <c r="D20">
-        <v>1.056942207458152</v>
+        <v>0.975679573004063</v>
       </c>
       <c r="E20">
-        <v>1.054349702385181</v>
+        <v>0.977518679285015</v>
       </c>
       <c r="F20">
-        <v>1.065332761239746</v>
+        <v>0.9812629591809743</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.052907233593887</v>
+        <v>0.9879135536723544</v>
       </c>
       <c r="K20">
-        <v>1.060244179275871</v>
+        <v>0.9901639869656206</v>
       </c>
       <c r="L20">
-        <v>1.05766036452848</v>
+        <v>0.9919687000618727</v>
       </c>
       <c r="M20">
-        <v>1.068606925172389</v>
+        <v>0.995643477384122</v>
       </c>
       <c r="N20">
-        <v>1.054402482635738</v>
+        <v>0.9893165042338377</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.044972354359532</v>
+        <v>0.9481576477015897</v>
       </c>
       <c r="D21">
-        <v>1.055200168752938</v>
+        <v>0.966010579320926</v>
       </c>
       <c r="E21">
-        <v>1.052706961600791</v>
+        <v>0.9683840478195743</v>
       </c>
       <c r="F21">
-        <v>1.063522960367338</v>
+        <v>0.9712733439952337</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.051494199459454</v>
+        <v>0.979994995953979</v>
       </c>
       <c r="K21">
-        <v>1.058710287007088</v>
+        <v>0.9816658302585015</v>
       </c>
       <c r="L21">
-        <v>1.056226012866135</v>
+        <v>0.9839902139452908</v>
       </c>
       <c r="M21">
-        <v>1.06700359283498</v>
+        <v>0.9868201846028024</v>
       </c>
       <c r="N21">
-        <v>1.052987441830757</v>
+        <v>0.9813867012552309</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.043832787831138</v>
+        <v>0.9412522709367719</v>
       </c>
       <c r="D22">
-        <v>1.054104062682096</v>
+        <v>0.9596858417700617</v>
       </c>
       <c r="E22">
-        <v>1.051673219985604</v>
+        <v>0.9624102012728936</v>
       </c>
       <c r="F22">
-        <v>1.062384371735762</v>
+        <v>0.9647401216694942</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.050604235588034</v>
+        <v>0.9748064895175027</v>
       </c>
       <c r="K22">
-        <v>1.057744544170503</v>
+        <v>0.9761005883766807</v>
       </c>
       <c r="L22">
-        <v>1.055322765362694</v>
+        <v>0.9787650005376873</v>
       </c>
       <c r="M22">
-        <v>1.065994322560932</v>
+        <v>0.9810440096201624</v>
       </c>
       <c r="N22">
-        <v>1.052096214108559</v>
+        <v>0.9761908265444846</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.044437013574077</v>
+        <v>0.9449414275402809</v>
       </c>
       <c r="D23">
-        <v>1.054685209695664</v>
+        <v>0.9630634608558383</v>
       </c>
       <c r="E23">
-        <v>1.05222131265032</v>
+        <v>0.9656002888459512</v>
       </c>
       <c r="F23">
-        <v>1.062988028074642</v>
+        <v>0.9682289630738472</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.051076170171822</v>
+        <v>0.977578146626918</v>
       </c>
       <c r="K23">
-        <v>1.058256630939724</v>
+        <v>0.9790732093068583</v>
       </c>
       <c r="L23">
-        <v>1.055801730495723</v>
+        <v>0.9815560167747446</v>
       </c>
       <c r="M23">
-        <v>1.066529471595368</v>
+        <v>0.984129109779759</v>
       </c>
       <c r="N23">
-        <v>1.052568818893588</v>
+        <v>0.9789664197249088</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.046813193681789</v>
+        <v>0.95886404831733</v>
       </c>
       <c r="D24">
-        <v>1.056971399780816</v>
+        <v>0.9758378263580598</v>
       </c>
       <c r="E24">
-        <v>1.054377228760683</v>
+        <v>0.9776682051797788</v>
       </c>
       <c r="F24">
-        <v>1.065363091697928</v>
+        <v>0.9814264806900455</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.052930897879111</v>
+        <v>0.9880430141164115</v>
       </c>
       <c r="K24">
-        <v>1.06026987334938</v>
+        <v>0.9903029727555445</v>
       </c>
       <c r="L24">
-        <v>1.057684388226073</v>
+        <v>0.9920991801134263</v>
       </c>
       <c r="M24">
-        <v>1.068633785679766</v>
+        <v>0.9957878128028462</v>
       </c>
       <c r="N24">
-        <v>1.054426180526962</v>
+        <v>0.9894461485265746</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.049565606285847</v>
+        <v>0.9739469606458577</v>
       </c>
       <c r="D25">
-        <v>1.059621135994137</v>
+        <v>0.9897253463085209</v>
       </c>
       <c r="E25">
-        <v>1.056875470313181</v>
+        <v>0.990791730403297</v>
       </c>
       <c r="F25">
-        <v>1.068116502766107</v>
+        <v>0.9957791715495992</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.055076786112191</v>
+        <v>0.9993840893949223</v>
       </c>
       <c r="K25">
-        <v>1.062600637123987</v>
+        <v>1.002485284937401</v>
       </c>
       <c r="L25">
-        <v>1.059863205819263</v>
+        <v>1.00353469483661</v>
       </c>
       <c r="M25">
-        <v>1.071070817747025</v>
+        <v>1.008443365731414</v>
       </c>
       <c r="N25">
-        <v>1.056575116167469</v>
+        <v>1.00080332943282</v>
       </c>
     </row>
   </sheetData>
